--- a/runs/run710/NotionalETEOutput710.xlsx
+++ b/runs/run710/NotionalETEOutput710.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_17.MISSILE_ANGERMAX2_17</t>
+    <t>MISSILE_BRAVER2_290.MISSILE_BRAVER2_290</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1511.512974441999</v>
+        <v>-1549.801508764769</v>
       </c>
       <c r="J2">
-        <v>2080.33266926725</v>
+        <v>2076.668834813716</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1526.803042072893</v>
+        <v>-1527.017635803596</v>
       </c>
       <c r="J3">
-        <v>2032.746033448112</v>
+        <v>1863.407968550644</v>
       </c>
       <c r="K3">
-        <v>311.2701134061103</v>
+        <v>290.4357282566949</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1380.790888470812</v>
+        <v>-1443.414998885179</v>
       </c>
       <c r="J4">
-        <v>1854.111301436511</v>
+        <v>1813.737597426994</v>
       </c>
       <c r="K4">
-        <v>585.2198169116682</v>
+        <v>577.3693315538808</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1410.570871583928</v>
+        <v>-1376.339659193804</v>
       </c>
       <c r="J5">
-        <v>1822.448045202892</v>
+        <v>1893.654847544515</v>
       </c>
       <c r="K5">
-        <v>903.3527011606558</v>
+        <v>843.6862174770733</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1325.838721161064</v>
+        <v>-1407.508153493841</v>
       </c>
       <c r="J6">
-        <v>1893.690073298348</v>
+        <v>1879.375128311463</v>
       </c>
       <c r="K6">
-        <v>1116.753175319149</v>
+        <v>1069.811570937695</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1327.619169841947</v>
+        <v>-1291.545466887939</v>
       </c>
       <c r="J7">
-        <v>1723.868237773426</v>
+        <v>1843.07972951304</v>
       </c>
       <c r="K7">
-        <v>1384.13548227097</v>
+        <v>1425.609318943938</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1343.846687860813</v>
+        <v>-1327.573921130323</v>
       </c>
       <c r="J8">
-        <v>1701.083161686976</v>
+        <v>1793.402840175644</v>
       </c>
       <c r="K8">
-        <v>1531.867993081493</v>
+        <v>1663.032904195832</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.19976819078262</v>
+        <v>-95.87391444515978</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1227.015213798914</v>
+        <v>-1306.644652516227</v>
       </c>
       <c r="J9">
-        <v>1620.942310111394</v>
+        <v>1700.509417585843</v>
       </c>
       <c r="K9">
-        <v>1732.352805387561</v>
+        <v>1851.943186403769</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.6367897727053</v>
+        <v>210.1510028066436</v>
       </c>
       <c r="G10">
-        <v>-81.95885555966714</v>
+        <v>-84.59035455662904</v>
       </c>
       <c r="H10">
-        <v>849.3377568942851</v>
+        <v>883.2011382688696</v>
       </c>
       <c r="I10">
-        <v>-1233.387043385593</v>
+        <v>-1279.607117854987</v>
       </c>
       <c r="J10">
-        <v>1584.791690765375</v>
+        <v>1543.570639542286</v>
       </c>
       <c r="K10">
-        <v>2076.203774252474</v>
+        <v>2082.600732656077</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>173.5294952144852</v>
+        <v>170.8331623082006</v>
       </c>
       <c r="G11">
-        <v>-64.17122093175725</v>
+        <v>-63.85701900726411</v>
       </c>
       <c r="H11">
-        <v>1037.125774782141</v>
+        <v>1041.799470387685</v>
       </c>
       <c r="I11">
-        <v>-1203.415306127514</v>
+        <v>-1168.274815453739</v>
       </c>
       <c r="J11">
-        <v>1599.872843542898</v>
+        <v>1523.085845006795</v>
       </c>
       <c r="K11">
-        <v>2160.858266865819</v>
+        <v>2164.9489048274</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>140.3005933512703</v>
+        <v>146.446745528814</v>
       </c>
       <c r="G12">
-        <v>-48.47422438432557</v>
+        <v>-51.83052010683947</v>
       </c>
       <c r="H12">
-        <v>1217.570188746525</v>
+        <v>1205.169835537412</v>
       </c>
       <c r="I12">
-        <v>-1152.401749980041</v>
+        <v>-1132.622015309399</v>
       </c>
       <c r="J12">
-        <v>1570.463048692902</v>
+        <v>1513.979921764277</v>
       </c>
       <c r="K12">
-        <v>2322.509681826332</v>
+        <v>2306.102116471002</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>126.5004869162085</v>
+        <v>121.6409116238906</v>
       </c>
       <c r="G13">
-        <v>-33.98356473426382</v>
+        <v>-33.02311495161671</v>
       </c>
       <c r="H13">
-        <v>1228.880484475266</v>
+        <v>1215.767758152406</v>
       </c>
       <c r="I13">
-        <v>-1114.033402474638</v>
+        <v>-1187.383171980145</v>
       </c>
       <c r="J13">
-        <v>1457.036358474599</v>
+        <v>1458.63596178726</v>
       </c>
       <c r="K13">
-        <v>2600.407033430292</v>
+        <v>2487.403926304301</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.005853850286</v>
+        <v>104.3386689280521</v>
       </c>
       <c r="G14">
-        <v>-18.03736000721671</v>
+        <v>-17.8243717664296</v>
       </c>
       <c r="H14">
-        <v>1387.42591193288</v>
+        <v>1375.263897301035</v>
       </c>
       <c r="I14">
-        <v>-1130.27672211814</v>
+        <v>-1143.232563969978</v>
       </c>
       <c r="J14">
-        <v>1382.117677230378</v>
+        <v>1396.956099461486</v>
       </c>
       <c r="K14">
-        <v>2662.43573111917</v>
+        <v>2746.128036500614</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.1595149146279</v>
+        <v>97.04844623269926</v>
       </c>
       <c r="G15">
-        <v>-0.9342175848610085</v>
+        <v>-0.9594950263648458</v>
       </c>
       <c r="H15">
-        <v>1444.041319223048</v>
+        <v>1380.736179454576</v>
       </c>
       <c r="I15">
-        <v>-1049.527990068589</v>
+        <v>-1000.321568888637</v>
       </c>
       <c r="J15">
-        <v>1343.193329576098</v>
+        <v>1338.317197395946</v>
       </c>
       <c r="K15">
-        <v>2730.541359789122</v>
+        <v>2659.840176639604</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.48397020263057</v>
+        <v>96.54681308486022</v>
       </c>
       <c r="G16">
-        <v>15.15123254148196</v>
+        <v>16.27529113502086</v>
       </c>
       <c r="H16">
-        <v>1392.341373254466</v>
+        <v>1405.280943867572</v>
       </c>
       <c r="I16">
-        <v>-1011.816632957348</v>
+        <v>-1057.460822811878</v>
       </c>
       <c r="J16">
-        <v>1371.256383498821</v>
+        <v>1278.00125448178</v>
       </c>
       <c r="K16">
-        <v>2751.584175330737</v>
+        <v>2806.23161790117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.65716902091822</v>
+        <v>85.62820186040466</v>
       </c>
       <c r="G17">
-        <v>33.31761748385507</v>
+        <v>30.96409929181101</v>
       </c>
       <c r="H17">
-        <v>1493.935972021109</v>
+        <v>1414.998887539516</v>
       </c>
       <c r="I17">
-        <v>-941.2175743897245</v>
+        <v>-971.8705326576955</v>
       </c>
       <c r="J17">
-        <v>1298.257282080202</v>
+        <v>1240.822969901522</v>
       </c>
       <c r="K17">
-        <v>3053.816263220237</v>
+        <v>3064.684259933063</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.39328449924403</v>
+        <v>84.01987356099293</v>
       </c>
       <c r="G18">
-        <v>48.96314604494855</v>
+        <v>48.0164815885238</v>
       </c>
       <c r="H18">
-        <v>1532.826936095325</v>
+        <v>1456.423461818499</v>
       </c>
       <c r="I18">
-        <v>-932.8495218898363</v>
+        <v>-892.742617014795</v>
       </c>
       <c r="J18">
-        <v>1206.790683875</v>
+        <v>1246.194620680495</v>
       </c>
       <c r="K18">
-        <v>2927.284460015023</v>
+        <v>3143.974426193496</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.73220719406393</v>
+        <v>76.95095748075816</v>
       </c>
       <c r="G19">
-        <v>65.34180218812155</v>
+        <v>63.63162196372907</v>
       </c>
       <c r="H19">
-        <v>1544.716093058805</v>
+        <v>1493.856553908861</v>
       </c>
       <c r="I19">
-        <v>-856.5818899340254</v>
+        <v>-913.5786168890429</v>
       </c>
       <c r="J19">
-        <v>1202.157585553684</v>
+        <v>1140.990152454578</v>
       </c>
       <c r="K19">
-        <v>3096.662773287297</v>
+        <v>3027.118268722472</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.62180004501128</v>
+        <v>70.57747776477575</v>
       </c>
       <c r="G20">
-        <v>77.69235539507882</v>
+        <v>77.63344174634943</v>
       </c>
       <c r="H20">
-        <v>1544.550672902671</v>
+        <v>1507.642238862367</v>
       </c>
       <c r="I20">
-        <v>-832.8776214549155</v>
+        <v>-817.303651362961</v>
       </c>
       <c r="J20">
-        <v>1160.160609119204</v>
+        <v>1096.402339475903</v>
       </c>
       <c r="K20">
-        <v>2994.323878687752</v>
+        <v>3039.200442473189</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.24429315086692</v>
+        <v>67.82234851100397</v>
       </c>
       <c r="G21">
-        <v>100.1569126793354</v>
+        <v>93.28798525032678</v>
       </c>
       <c r="H21">
-        <v>1577.877870342649</v>
+        <v>1512.928430046114</v>
       </c>
       <c r="I21">
-        <v>-801.3033301661743</v>
+        <v>-769.5615524862683</v>
       </c>
       <c r="J21">
-        <v>1079.560212543273</v>
+        <v>1023.415932231234</v>
       </c>
       <c r="K21">
-        <v>3113.679246244981</v>
+        <v>3051.776905056971</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.00555931783219</v>
+        <v>66.75932230668498</v>
       </c>
       <c r="G22">
-        <v>114.3251514121035</v>
+        <v>118.9459190204099</v>
       </c>
       <c r="H22">
-        <v>1649.837225491294</v>
+        <v>1549.073839679437</v>
       </c>
       <c r="I22">
-        <v>-776.0105299084556</v>
+        <v>-773.469635633171</v>
       </c>
       <c r="J22">
-        <v>987.3521557950553</v>
+        <v>996.1302025876342</v>
       </c>
       <c r="K22">
-        <v>3193.264643165714</v>
+        <v>3177.279943944357</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.21420466751074</v>
+        <v>63.22119778468193</v>
       </c>
       <c r="G23">
-        <v>131.9789239558789</v>
+        <v>136.6989049687066</v>
       </c>
       <c r="H23">
-        <v>1677.495968018116</v>
+        <v>1614.817304594923</v>
       </c>
       <c r="I23">
-        <v>-700.2370316384583</v>
+        <v>-681.8098345200003</v>
       </c>
       <c r="J23">
-        <v>932.5254492148425</v>
+        <v>946.6056862690829</v>
       </c>
       <c r="K23">
-        <v>3159.073597733014</v>
+        <v>3312.344226806556</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.82973202768622</v>
+        <v>64.30112303399709</v>
       </c>
       <c r="G24">
-        <v>143.6603669709276</v>
+        <v>144.4736510326938</v>
       </c>
       <c r="H24">
-        <v>1720.635427684868</v>
+        <v>1672.948303378611</v>
       </c>
       <c r="I24">
-        <v>-628.0643308549323</v>
+        <v>-658.4351516017711</v>
       </c>
       <c r="J24">
-        <v>891.4782058508167</v>
+        <v>900.6626620856854</v>
       </c>
       <c r="K24">
-        <v>3089.561009674715</v>
+        <v>3092.321980542155</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.32246761854839</v>
+        <v>64.01484452320729</v>
       </c>
       <c r="G25">
-        <v>157.7118741150717</v>
+        <v>157.0169024233444</v>
       </c>
       <c r="H25">
-        <v>1664.838932110132</v>
+        <v>1746.701706083348</v>
       </c>
       <c r="I25">
-        <v>-582.4497941838198</v>
+        <v>-609.3576749276809</v>
       </c>
       <c r="J25">
-        <v>838.396550849975</v>
+        <v>924.1157589705351</v>
       </c>
       <c r="K25">
-        <v>3003.056516593365</v>
+        <v>3280.28128697257</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.34055149391705</v>
+        <v>57.8300643986919</v>
       </c>
       <c r="G26">
-        <v>182.837954876966</v>
+        <v>171.7404397580472</v>
       </c>
       <c r="H26">
-        <v>1716.057440870666</v>
+        <v>1648.827401993594</v>
       </c>
       <c r="I26">
-        <v>-569.9498116441873</v>
+        <v>-543.7223660655011</v>
       </c>
       <c r="J26">
-        <v>850.4381573620634</v>
+        <v>800.1703101794831</v>
       </c>
       <c r="K26">
-        <v>3129.173704541888</v>
+        <v>3046.101099666802</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.36862110852586</v>
+        <v>55.34492941847591</v>
       </c>
       <c r="G27">
-        <v>203.4758001066758</v>
+        <v>206.8057467307624</v>
       </c>
       <c r="H27">
-        <v>1781.722683736923</v>
+        <v>1682.01612305349</v>
       </c>
       <c r="I27">
-        <v>-480.7714466305697</v>
+        <v>-476.0324005674486</v>
       </c>
       <c r="J27">
-        <v>805.2831026848344</v>
+        <v>809.0764663410005</v>
       </c>
       <c r="K27">
-        <v>3201.703571254004</v>
+        <v>3023.41079609864</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.98401094847014</v>
+        <v>56.86679150263807</v>
       </c>
       <c r="G28">
-        <v>217.117083614752</v>
+        <v>224.1422835773095</v>
       </c>
       <c r="H28">
-        <v>1645.742250731784</v>
+        <v>1742.136742720064</v>
       </c>
       <c r="I28">
-        <v>-418.5594715648885</v>
+        <v>-432.1409244260832</v>
       </c>
       <c r="J28">
-        <v>749.2467295130473</v>
+        <v>728.2667927477737</v>
       </c>
       <c r="K28">
-        <v>2967.827855428523</v>
+        <v>2917.321100686343</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.01487246227549</v>
+        <v>56.16311515195894</v>
       </c>
       <c r="G29">
-        <v>239.3198965931228</v>
+        <v>230.7310569869972</v>
       </c>
       <c r="H29">
-        <v>1763.632707245021</v>
+        <v>1767.306687170425</v>
       </c>
       <c r="I29">
-        <v>-384.935464745507</v>
+        <v>-373.3344330864791</v>
       </c>
       <c r="J29">
-        <v>660.5324252707464</v>
+        <v>676.4060525875634</v>
       </c>
       <c r="K29">
-        <v>2954.737435534472</v>
+        <v>2974.934926808895</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.63664719325046</v>
+        <v>55.03333487627367</v>
       </c>
       <c r="G30">
-        <v>244.991180522754</v>
+        <v>245.6299342954022</v>
       </c>
       <c r="H30">
-        <v>1773.124247775336</v>
+        <v>1699.631852860679</v>
       </c>
       <c r="I30">
-        <v>-318.2474060202633</v>
+        <v>-334.0240351518062</v>
       </c>
       <c r="J30">
-        <v>668.2709241051813</v>
+        <v>613.0962015448544</v>
       </c>
       <c r="K30">
-        <v>2702.533765877768</v>
+        <v>2915.673156659705</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.94530357654256</v>
+        <v>54.0449135818437</v>
       </c>
       <c r="G31">
-        <v>275.2977128693695</v>
+        <v>263.3712800700361</v>
       </c>
       <c r="H31">
-        <v>1796.287230401047</v>
+        <v>1854.709996368679</v>
       </c>
       <c r="I31">
-        <v>-265.2530183070357</v>
+        <v>-280.5072340812673</v>
       </c>
       <c r="J31">
-        <v>595.8904912012376</v>
+        <v>595.75729153959</v>
       </c>
       <c r="K31">
-        <v>2615.398012858585</v>
+        <v>2564.467604633368</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.93906810040259</v>
+        <v>51.40934518324238</v>
       </c>
       <c r="G32">
-        <v>276.4877886344387</v>
+        <v>279.9417893780123</v>
       </c>
       <c r="H32">
-        <v>1851.198266246399</v>
+        <v>1731.831788349631</v>
       </c>
       <c r="I32">
-        <v>-217.256291587371</v>
+        <v>-211.5544056983619</v>
       </c>
       <c r="J32">
-        <v>519.9514577965657</v>
+        <v>550.0807014215337</v>
       </c>
       <c r="K32">
-        <v>2522.452659127434</v>
+        <v>2630.103994356089</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.88906656178266</v>
+        <v>52.67195342226583</v>
       </c>
       <c r="G33">
-        <v>285.8933915182484</v>
+        <v>307.9270696630566</v>
       </c>
       <c r="H33">
-        <v>1853.43454218042</v>
+        <v>1753.38819446103</v>
       </c>
       <c r="I33">
-        <v>-145.8905421910217</v>
+        <v>-144.5489874740848</v>
       </c>
       <c r="J33">
-        <v>487.805040127846</v>
+        <v>473.3829045351959</v>
       </c>
       <c r="K33">
-        <v>2369.200205159318</v>
+        <v>2347.950741093378</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.38541869489587</v>
+        <v>46.85482791842534</v>
       </c>
       <c r="G34">
-        <v>304.9304611290769</v>
+        <v>321.2838698009696</v>
       </c>
       <c r="H34">
-        <v>1734.901053975205</v>
+        <v>1837.27173159171</v>
       </c>
       <c r="I34">
-        <v>-83.16796692512492</v>
+        <v>-84.18774545337374</v>
       </c>
       <c r="J34">
-        <v>456.5794690422535</v>
+        <v>443.9128742770019</v>
       </c>
       <c r="K34">
-        <v>2315.793110683171</v>
+        <v>2181.097482651105</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.79619870557833</v>
+        <v>50.30805542179255</v>
       </c>
       <c r="G35">
-        <v>321.0081591830972</v>
+        <v>332.5704062409191</v>
       </c>
       <c r="H35">
-        <v>1885.303001656451</v>
+        <v>1800.708303166368</v>
       </c>
       <c r="I35">
-        <v>-18.27830921831696</v>
+        <v>-19.40825838878322</v>
       </c>
       <c r="J35">
-        <v>400.7645210307568</v>
+        <v>413.5069014755571</v>
       </c>
       <c r="K35">
-        <v>2033.120768605308</v>
+        <v>2066.626270502428</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.99008857291025</v>
+        <v>46.42046878432652</v>
       </c>
       <c r="G36">
-        <v>333.5654357616594</v>
+        <v>361.0370263303149</v>
       </c>
       <c r="H36">
-        <v>1834.100194281877</v>
+        <v>1744.974249078585</v>
       </c>
       <c r="I36">
-        <v>45.03631023472866</v>
+        <v>47.87564386325668</v>
       </c>
       <c r="J36">
-        <v>357.3897555626031</v>
+        <v>333.2583715667833</v>
       </c>
       <c r="K36">
-        <v>1786.554458181098</v>
+        <v>1767.429226393483</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.82176676028062</v>
+        <v>45.74274857186586</v>
       </c>
       <c r="G37">
-        <v>376.2515384126136</v>
+        <v>353.7183983832209</v>
       </c>
       <c r="H37">
-        <v>1926.330844270321</v>
+        <v>1875.795985416242</v>
       </c>
       <c r="I37">
-        <v>113.8590297790746</v>
+        <v>110.7587902435505</v>
       </c>
       <c r="J37">
-        <v>292.8450462763305</v>
+        <v>296.4010055653573</v>
       </c>
       <c r="K37">
-        <v>1611.343400310666</v>
+        <v>1658.783544665313</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.29189276623312</v>
+        <v>45.56565560802161</v>
       </c>
       <c r="G38">
-        <v>394.5581521340546</v>
+        <v>387.1952771574682</v>
       </c>
       <c r="H38">
-        <v>1909.576620846872</v>
+        <v>1829.179787692471</v>
       </c>
       <c r="I38">
-        <v>176.9868492954873</v>
+        <v>178.0935689971251</v>
       </c>
       <c r="J38">
-        <v>253.8341306151411</v>
+        <v>258.3415494160873</v>
       </c>
       <c r="K38">
-        <v>1418.390668026849</v>
+        <v>1346.992479021885</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.9519212918372</v>
+        <v>46.46301980247213</v>
       </c>
       <c r="G39">
-        <v>399.9111815997762</v>
+        <v>407.7308947128254</v>
       </c>
       <c r="H39">
-        <v>1849.928912193706</v>
+        <v>1925.080020933279</v>
       </c>
       <c r="I39">
-        <v>260.3939761309146</v>
+        <v>247.4946802942903</v>
       </c>
       <c r="J39">
-        <v>200.1427937563487</v>
+        <v>208.0212910997968</v>
       </c>
       <c r="K39">
-        <v>1108.127619635772</v>
+        <v>1186.420697561149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.74740329487792</v>
+        <v>42.15978474826812</v>
       </c>
       <c r="G40">
-        <v>405.116499064814</v>
+        <v>412.1837889379046</v>
       </c>
       <c r="H40">
-        <v>1851.409102874264</v>
+        <v>1874.431732822145</v>
       </c>
       <c r="I40">
-        <v>329.9234818382822</v>
+        <v>320.8669352276681</v>
       </c>
       <c r="J40">
-        <v>155.5380395093999</v>
+        <v>149.5906605411469</v>
       </c>
       <c r="K40">
-        <v>908.8429449854061</v>
+        <v>891.2232095604061</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.80186341321388</v>
+        <v>42.31953217001345</v>
       </c>
       <c r="G41">
-        <v>429.5635361745384</v>
+        <v>438.0904654653676</v>
       </c>
       <c r="H41">
-        <v>1902.332990900723</v>
+        <v>1882.345716181129</v>
       </c>
       <c r="I41">
-        <v>422.4920855403274</v>
+        <v>384.7769981128314</v>
       </c>
       <c r="J41">
-        <v>104.0548351274791</v>
+        <v>102.285514016742</v>
       </c>
       <c r="K41">
-        <v>644.7911395230947</v>
+        <v>600.9031243533112</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.96890888402105</v>
+        <v>42.67911493905565</v>
       </c>
       <c r="G42">
-        <v>462.3804291048044</v>
+        <v>437.1657363960423</v>
       </c>
       <c r="H42">
-        <v>1846.933776437711</v>
+        <v>1960.562314487444</v>
       </c>
       <c r="I42">
-        <v>477.5782299189542</v>
+        <v>458.0702701238826</v>
       </c>
       <c r="J42">
-        <v>52.05488775577241</v>
+        <v>51.31509779196484</v>
       </c>
       <c r="K42">
-        <v>346.0212932361601</v>
+        <v>322.6119401975735</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.54702753381606</v>
+        <v>43.95787667976428</v>
       </c>
       <c r="G43">
-        <v>453.5958039049199</v>
+        <v>456.9810174748852</v>
       </c>
       <c r="H43">
-        <v>1945.794111836949</v>
+        <v>1930.667062001637</v>
       </c>
       <c r="I43">
-        <v>554.4974412542339</v>
+        <v>570.1460737476201</v>
       </c>
       <c r="J43">
-        <v>5.24001821463454</v>
+        <v>5.314094983096964</v>
       </c>
       <c r="K43">
-        <v>32.95750335824407</v>
+        <v>32.05304840470808</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.5667989156028</v>
+        <v>41.14362843477019</v>
       </c>
       <c r="G44">
-        <v>484.7830069397593</v>
+        <v>494.5994477262501</v>
       </c>
       <c r="H44">
-        <v>1855.615812081567</v>
+        <v>1834.897130044936</v>
       </c>
       <c r="I44">
-        <v>652.7190270843164</v>
+        <v>656.9136790716232</v>
       </c>
       <c r="J44">
-        <v>-43.95945286494136</v>
+        <v>-43.23274617939251</v>
       </c>
       <c r="K44">
-        <v>-289.6119530833855</v>
+        <v>-278.1169196263509</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.66815393192459</v>
+        <v>42.64593381183295</v>
       </c>
       <c r="G45">
-        <v>508.0726159015966</v>
+        <v>492.1763996491215</v>
       </c>
       <c r="H45">
-        <v>1829.610450148207</v>
+        <v>1942.025410513408</v>
       </c>
       <c r="I45">
-        <v>737.6281492209166</v>
+        <v>744.1361753357993</v>
       </c>
       <c r="J45">
-        <v>-95.57939518966275</v>
+        <v>-94.52813333521672</v>
       </c>
       <c r="K45">
-        <v>-631.0859474055161</v>
+        <v>-594.2274945041974</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.10403938429738</v>
+        <v>41.49513829384874</v>
       </c>
       <c r="G46">
-        <v>517.4233263978734</v>
+        <v>531.1929569436935</v>
       </c>
       <c r="H46">
-        <v>1897.261194633789</v>
+        <v>2008.891638494046</v>
       </c>
       <c r="I46">
-        <v>765.1798259945699</v>
+        <v>826.2302776590502</v>
       </c>
       <c r="J46">
-        <v>-141.2413063695594</v>
+        <v>-139.5077434949341</v>
       </c>
       <c r="K46">
-        <v>-932.2463805680892</v>
+        <v>-1000.600331853919</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.8178076011863</v>
+        <v>40.36063178387153</v>
       </c>
       <c r="G47">
-        <v>530.5946987496972</v>
+        <v>515.8972846105166</v>
       </c>
       <c r="H47">
-        <v>1977.544307444201</v>
+        <v>1955.908416278349</v>
       </c>
       <c r="I47">
-        <v>921.4232367054468</v>
+        <v>863.792542962719</v>
       </c>
       <c r="J47">
-        <v>-196.9374708799194</v>
+        <v>-188.8544322288376</v>
       </c>
       <c r="K47">
-        <v>-1274.879387589544</v>
+        <v>-1358.442714274782</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.71781908536765</v>
+        <v>37.88009339268375</v>
       </c>
       <c r="G48">
-        <v>540.3117167504257</v>
+        <v>545.4716315358452</v>
       </c>
       <c r="H48">
-        <v>1972.04792092577</v>
+        <v>2024.939084567527</v>
       </c>
       <c r="I48">
-        <v>936.1189650730679</v>
+        <v>956.7713177490582</v>
       </c>
       <c r="J48">
-        <v>-232.1578740126736</v>
+        <v>-229.5931252187984</v>
       </c>
       <c r="K48">
-        <v>-1675.217299840836</v>
+        <v>-1759.090653449556</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.13306142122966</v>
+        <v>39.71150109716248</v>
       </c>
       <c r="G49">
-        <v>566.42571038773</v>
+        <v>565.1939651859198</v>
       </c>
       <c r="H49">
-        <v>1977.955165169256</v>
+        <v>1853.154297539727</v>
       </c>
       <c r="I49">
-        <v>1043.013572912154</v>
+        <v>1063.829585301101</v>
       </c>
       <c r="J49">
-        <v>-286.5701005398274</v>
+        <v>-277.8962840827808</v>
       </c>
       <c r="K49">
-        <v>-2116.664987049769</v>
+        <v>-2099.02740683381</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.45327190205626</v>
+        <v>39.68207685401271</v>
       </c>
       <c r="G50">
-        <v>600.5799267321905</v>
+        <v>556.7012999988842</v>
       </c>
       <c r="H50">
-        <v>1919.247142423163</v>
+        <v>2036.308166005209</v>
       </c>
       <c r="I50">
-        <v>1147.719062635443</v>
+        <v>1136.80532332569</v>
       </c>
       <c r="J50">
-        <v>-342.5287315382103</v>
+        <v>-331.4442193890398</v>
       </c>
       <c r="K50">
-        <v>-2576.701089031025</v>
+        <v>-2389.754403335801</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.3566869564342</v>
+        <v>37.27183307735528</v>
       </c>
       <c r="G51">
-        <v>587.351099041653</v>
+        <v>606.3390312308139</v>
       </c>
       <c r="H51">
-        <v>2007.838210174438</v>
+        <v>1958.935239473044</v>
       </c>
       <c r="I51">
-        <v>1310.938201800594</v>
+        <v>1210.592785150309</v>
       </c>
       <c r="J51">
-        <v>-375.895118891845</v>
+        <v>-387.2739331070302</v>
       </c>
       <c r="K51">
-        <v>-2941.852192136062</v>
+        <v>-2895.994382820997</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.00077766728562</v>
+        <v>37.45119698154935</v>
       </c>
       <c r="G52">
-        <v>636.1929352025007</v>
+        <v>614.9885027998337</v>
       </c>
       <c r="H52">
-        <v>2023.146007836734</v>
+        <v>1934.706522368889</v>
       </c>
       <c r="I52">
-        <v>1423.462042692771</v>
+        <v>1336.773179077042</v>
       </c>
       <c r="J52">
-        <v>-443.2274436494386</v>
+        <v>-417.324467385594</v>
       </c>
       <c r="K52">
-        <v>-3328.532467112342</v>
+        <v>-3221.78738871697</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.27032340516724</v>
+        <v>38.41732610135943</v>
       </c>
       <c r="G53">
-        <v>617.7704346270301</v>
+        <v>651.0588841945309</v>
       </c>
       <c r="H53">
-        <v>1921.357205962077</v>
+        <v>1950.555047900173</v>
       </c>
       <c r="I53">
-        <v>1385.271471664201</v>
+        <v>1397.047883468557</v>
       </c>
       <c r="J53">
-        <v>-491.0532750499904</v>
+        <v>-471.9619588268167</v>
       </c>
       <c r="K53">
-        <v>-3732.265923010912</v>
+        <v>-3952.061906928987</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.36639376421194</v>
+        <v>35.26927611320367</v>
       </c>
       <c r="G54">
-        <v>611.5773684495383</v>
+        <v>657.8576977760923</v>
       </c>
       <c r="H54">
-        <v>2036.908685000642</v>
+        <v>1893.195313066215</v>
       </c>
       <c r="I54">
-        <v>1502.397441545773</v>
+        <v>1584.756491649752</v>
       </c>
       <c r="J54">
-        <v>-517.3429428064471</v>
+        <v>-517.714054427048</v>
       </c>
       <c r="K54">
-        <v>-4502.668838297574</v>
+        <v>-4131.971075745805</v>
       </c>
     </row>
   </sheetData>
